--- a/Documentation/PROJMAN/Budget Estimate and Financial Analysis.xlsx
+++ b/Documentation/PROJMAN/Budget Estimate and Financial Analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>1. Project Management</t>
   </si>
@@ -39,56 +39,67 @@
     <t xml:space="preserve">    1.5 Web Designer</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.6 System Quality  
+    <t xml:space="preserve">   2.1 Database Server</t>
+  </si>
+  <si>
+    <t>Total Project Cost Estimate</t>
+  </si>
+  <si>
+    <t>Subtotals</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>% of Total</t>
+  </si>
+  <si>
+    <t>Cost/Unit/Day</t>
+  </si>
+  <si>
+    <t>Unit/Hr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.1.2  No-SQL Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.1.1 SQL Server Enterprise</t>
+  </si>
+  <si>
+    <t>5,000/month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.6 Database Designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.7 System Quality  
     Assurrance</t>
   </si>
   <si>
-    <t>2. Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2.1 Database Server</t>
-  </si>
-  <si>
-    <t>3. Software</t>
-  </si>
-  <si>
-    <t>4. Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   4.1 Testing</t>
-  </si>
-  <si>
-    <t>Total Project Cost Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.1 Business Intelligence Tool(Cloud9 Charts)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.2 Power BI</t>
-  </si>
-  <si>
-    <t>Subtotals</t>
-  </si>
-  <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>% of Total</t>
-  </si>
-  <si>
-    <t>Cost/Unit/Day</t>
-  </si>
-  <si>
-    <t>Unit/Hr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.1.2  No-SQL Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.1.1 SQL Server Enterprise</t>
-  </si>
-  <si>
-    <t>499.5/month</t>
+    <t>3. Software(Proposed)</t>
+  </si>
+  <si>
+    <t>Total Project Cost Estimate w/out Proposed Hardware and Software</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2. Hardware (Proposed)</t>
+  </si>
+  <si>
+    <t>Reserves
+(10% of Estimate Cost)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.1 Business Intelligenc
+         Tool(Cloud9 Charts)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -140,12 +151,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,25 +498,29 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E2" s="7">
+        <f>SUM(D3:D9)</f>
+        <v>225120</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -505,15 +529,15 @@
       <c r="B3" s="2">
         <v>200</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:C8" si="0">B3*8</f>
         <v>1600</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D8" si="1">C3*28</f>
         <v>44800</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -526,7 +550,7 @@
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" si="1"/>
         <v>26880</v>
       </c>
@@ -542,7 +566,7 @@
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>24640</v>
       </c>
@@ -558,7 +582,7 @@
         <f t="shared" si="0"/>
         <v>1360</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>38080</v>
       </c>
@@ -574,117 +598,156 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
         <v>28000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <f>B9*8</f>
         <v>1440</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="1"/>
+      <c r="D9" s="6">
+        <f>C9*28</f>
         <v>40320</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7">
+        <f>SUM(D12:D13)</f>
+        <v>520240</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7">
-        <v>570240</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <v>270240</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6">
         <v>250000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7">
+        <f>SUM(5000)</f>
         <v>5000</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
+      <c r="A19" s="1"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7">
+        <f>SUM(E2 )</f>
+        <v>225120</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <f>SUM(E2,E11,E16)</f>
+        <v>750360</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7">
+        <f>E22*0.1</f>
+        <v>75036</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
